--- a/04_memo/map17.xlsx
+++ b/04_memo/map17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{116AA338-442F-4BBE-AB6D-1AFD582D5AC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8110336C-7AF9-409D-9692-516BD30C2C5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="5">
         <v>1</v>
@@ -2016,31 +2016,31 @@
         <v>1</v>
       </c>
       <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
         <v>7</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>8</v>
       </c>
       <c r="Q15" s="5">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>

--- a/04_memo/map17.xlsx
+++ b/04_memo/map17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8110336C-7AF9-409D-9692-516BD30C2C5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15CC8B9-3587-422C-85DF-C8C58C076C8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1228,10 +1228,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
